--- a/REGULAR/MAHOGANY MARKET/MACASPAC, ELVIRA.xlsx
+++ b/REGULAR/MAHOGANY MARKET/MACASPAC, ELVIRA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="489">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2366,7 +2366,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2409,7 +2409,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2473,7 +2473,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2533,7 +2533,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2599,7 +2599,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2662,7 +2662,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2760,7 +2760,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2819,7 +2819,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2884,7 +2884,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2927,7 +2927,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3002,7 +3002,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3188,7 +3188,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3254,7 +3254,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3312,7 +3312,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3378,7 +3378,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3434,7 +3434,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3509,7 +3509,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3552,7 +3552,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3618,7 +3618,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3674,7 +3674,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3772,7 +3772,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3835,7 +3835,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4285,7 +4285,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A534" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E539" sqref="E539"/>
+      <selection pane="bottomLeft" activeCell="E538" sqref="E538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4448,7 +4448,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>109.95000000000005</v>
+        <v>109.85400000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -16384,11 +16384,15 @@
       <c r="A538" s="40">
         <v>44652</v>
       </c>
-      <c r="B538" s="20"/>
+      <c r="B538" s="20" t="s">
+        <v>484</v>
+      </c>
       <c r="C538" s="13">
         <v>1.25</v>
       </c>
-      <c r="D538" s="39"/>
+      <c r="D538" s="39">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="E538" s="9"/>
       <c r="F538" s="20"/>
       <c r="G538" s="13">
@@ -18197,11 +18201,11 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>3.7000000000000019E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -18250,7 +18254,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>347.07500000000005</v>
+        <v>346.97900000000004</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/MAHOGANY MARKET/MACASPAC, ELVIRA.xlsx
+++ b/REGULAR/MAHOGANY MARKET/MACASPAC, ELVIRA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="489">
   <si>
     <t>PERIOD</t>
   </si>
@@ -4283,9 +4283,9 @@
   <dimension ref="A2:K635"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A534" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A546" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E538" sqref="E538"/>
+      <selection pane="bottomLeft" activeCell="I562" sqref="I562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4448,7 +4448,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>109.85400000000004</v>
+        <v>114.85400000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4458,7 +4458,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>237.125</v>
+        <v>240.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16815,13 +16815,15 @@
       <c r="B557" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C557" s="13"/>
+      <c r="C557" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D557" s="39"/>
       <c r="E557" s="9"/>
       <c r="F557" s="20"/>
-      <c r="G557" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G557" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H557" s="39">
         <v>1</v>
@@ -16855,15 +16857,19 @@
       </c>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A559" s="40"/>
+      <c r="A559" s="40">
+        <v>45078</v>
+      </c>
       <c r="B559" s="20"/>
-      <c r="C559" s="13"/>
+      <c r="C559" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D559" s="39"/>
       <c r="E559" s="9"/>
       <c r="F559" s="20"/>
-      <c r="G559" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G559" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H559" s="39"/>
       <c r="I559" s="9"/>
@@ -16871,15 +16877,19 @@
       <c r="K559" s="20"/>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A560" s="40"/>
+      <c r="A560" s="40">
+        <v>45108</v>
+      </c>
       <c r="B560" s="20"/>
-      <c r="C560" s="13"/>
+      <c r="C560" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D560" s="39"/>
       <c r="E560" s="9"/>
       <c r="F560" s="20"/>
-      <c r="G560" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G560" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H560" s="39"/>
       <c r="I560" s="9"/>
@@ -16887,24 +16897,38 @@
       <c r="K560" s="20"/>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A561" s="40"/>
-      <c r="B561" s="20"/>
-      <c r="C561" s="13"/>
+      <c r="A561" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B561" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C561" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D561" s="39"/>
       <c r="E561" s="9"/>
       <c r="F561" s="20"/>
-      <c r="G561" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H561" s="39"/>
+      <c r="G561" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H561" s="39">
+        <v>1</v>
+      </c>
       <c r="I561" s="9"/>
       <c r="J561" s="11"/>
-      <c r="K561" s="20"/>
+      <c r="K561" s="49">
+        <v>45160</v>
+      </c>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A562" s="40"/>
-      <c r="B562" s="20"/>
+      <c r="A562" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B562" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C562" s="13"/>
       <c r="D562" s="39"/>
       <c r="E562" s="9"/>
@@ -16913,13 +16937,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H562" s="39"/>
+      <c r="H562" s="39">
+        <v>1</v>
+      </c>
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
-      <c r="K562" s="20"/>
+      <c r="K562" s="49">
+        <v>45177</v>
+      </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A563" s="40"/>
+      <c r="A563" s="40">
+        <v>45200</v>
+      </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
       <c r="D563" s="39"/>
@@ -18254,7 +18284,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>346.97900000000004</v>
+        <v>354.97900000000004</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/MAHOGANY MARKET/MACASPAC, ELVIRA.xlsx
+++ b/REGULAR/MAHOGANY MARKET/MACASPAC, ELVIRA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="495">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2384,7 +2384,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2427,7 +2427,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2491,7 +2491,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2551,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2617,7 +2617,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2680,7 +2680,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2778,7 +2778,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2837,7 +2837,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2902,7 +2902,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2945,7 +2945,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3020,7 +3020,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3206,7 +3206,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3272,7 +3272,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3330,7 +3330,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3396,7 +3396,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3452,7 +3452,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3527,7 +3527,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3570,7 +3570,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3636,7 +3636,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3692,7 +3692,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3790,7 +3790,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3853,7 +3853,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4303,7 +4303,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A549" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K567" sqref="K567"/>
+      <selection pane="bottomLeft" activeCell="J567" sqref="J567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4466,7 +4466,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>111.35400000000004</v>
+        <v>115.10400000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4476,7 +4476,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>232.625</v>
+        <v>236.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17043,13 +17043,15 @@
       <c r="B566" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C566" s="13"/>
+      <c r="C566" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D566" s="39"/>
       <c r="E566" s="9"/>
       <c r="F566" s="20"/>
-      <c r="G566" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G566" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H566" s="39">
         <v>2</v>
@@ -17087,13 +17089,15 @@
         <v>45261</v>
       </c>
       <c r="B568" s="20"/>
-      <c r="C568" s="13"/>
+      <c r="C568" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D568" s="39"/>
       <c r="E568" s="9"/>
       <c r="F568" s="20"/>
-      <c r="G568" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G568" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H568" s="39"/>
       <c r="I568" s="9"/>
@@ -17122,19 +17126,25 @@
       <c r="A570" s="40">
         <v>45292</v>
       </c>
-      <c r="B570" s="20"/>
-      <c r="C570" s="13"/>
+      <c r="B570" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C570" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D570" s="39"/>
       <c r="E570" s="9"/>
       <c r="F570" s="20"/>
-      <c r="G570" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G570" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H570" s="39"/>
       <c r="I570" s="9"/>
       <c r="J570" s="11"/>
-      <c r="K570" s="20"/>
+      <c r="K570" s="49">
+        <v>45334</v>
+      </c>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
@@ -18418,7 +18428,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>343.97900000000004</v>
+        <v>351.47900000000004</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
